--- a/planilhas/NCMs_Alteradas.xlsx
+++ b/planilhas/NCMs_Alteradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Documents\Projetos\lista_produtos-x-NCMs\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBCB5E-3211-4DC1-9971-D7EFDAC5DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97811E3-93CD-4CB9-A6A3-4B416401780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E159A7B4-3B85-4421-A1AD-E9D3B491E639}"/>
   </bookViews>
@@ -773,7 +773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45050D1-DB32-4A1C-A63B-1BB62A7C120C}">
   <dimension ref="A1:A446"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
